--- a/Table3.xlsx
+++ b/Table3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DBBDDB-C451-459E-9425-E94C50DAA13E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBFBA3D-A795-46DB-B31D-615A311FE6DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{85600D27-152B-40E5-B3FA-12CDDFB43CE5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{85600D27-152B-40E5-B3FA-12CDDFB43CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>KW: var, fun, in, let, end, if, then, else, val</t>
   </si>
@@ -129,15 +129,6 @@
     <t>пробел</t>
   </si>
   <si>
-    <t>\r</t>
-  </si>
-  <si>
-    <t>\n</t>
-  </si>
-  <si>
-    <t>\t</t>
-  </si>
-  <si>
     <t>ID: буква, за которой следует любой набор из букв, цифр, _</t>
   </si>
   <si>
@@ -154,6 +145,9 @@
   </si>
   <si>
     <t>запятая</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -186,7 +180,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,6 +246,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE4A654-D37D-4D49-805D-4E9F2BF083A5}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,13 +1911,16 @@
         <v>33</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -1927,12 +1933,9 @@
       <c r="C87" s="4">
         <v>3</v>
       </c>
-      <c r="D87" s="4">
-        <v>4</v>
-      </c>
-      <c r="E87" s="4">
-        <v>5</v>
-      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
@@ -1941,31 +1944,25 @@
       <c r="B88" s="4">
         <v>2</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>3</v>
       </c>
-      <c r="D88" s="4">
-        <v>4</v>
-      </c>
-      <c r="E88" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>3</v>
-      </c>
-      <c r="B89" s="4">
-        <v>2</v>
-      </c>
-      <c r="C89" s="4">
-        <v>3</v>
-      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="4">
         <v>4</v>
       </c>
       <c r="E89" s="4">
         <v>5</v>
+      </c>
+      <c r="F89" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -1978,12 +1975,9 @@
       <c r="C90" s="4">
         <v>3</v>
       </c>
-      <c r="D90" s="4">
-        <v>4</v>
-      </c>
-      <c r="E90" s="4">
-        <v>5</v>
-      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
@@ -1995,28 +1989,39 @@
       <c r="C91" s="4">
         <v>3</v>
       </c>
-      <c r="D91" s="4">
-        <v>4</v>
-      </c>
-      <c r="E91" s="4">
-        <v>5</v>
-      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>6</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4">
+        <v>3</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,13 +2078,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">

--- a/Table3.xlsx
+++ b/Table3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Theory-of-formal-languages-and-translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBFBA3D-A795-46DB-B31D-615A311FE6DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CDAFF-E66A-4AE2-AF59-528A163957DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{85600D27-152B-40E5-B3FA-12CDDFB43CE5}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE4A654-D37D-4D49-805D-4E9F2BF083A5}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1944,9 @@
       <c r="B88" s="4">
         <v>2</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4">
+        <v>3</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>

--- a/Table3.xlsx
+++ b/Table3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Theory-of-formal-languages-and-translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CDAFF-E66A-4AE2-AF59-528A163957DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FA857-8BB7-481E-A69F-50F6C43A5EE0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{85600D27-152B-40E5-B3FA-12CDDFB43CE5}"/>
   </bookViews>
@@ -567,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE4A654-D37D-4D49-805D-4E9F2BF083A5}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
